--- a/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.9 - 6.10 10 year LPTA.xlsx
+++ b/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.9 - 6.10 10 year LPTA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jizhu\Desktop\LIRV\Textbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VZhu\Documents\GitHub\my_file\LIRV\Textbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="100">
   <si>
     <t>Pricing basis</t>
   </si>
@@ -502,11 +502,23 @@
   <si>
     <t>==&gt; required capital injection</t>
   </si>
+  <si>
+    <t>==&gt; PV of accounting profit would be the same as PV of distributable profit if the discount rate is equal to the investment return.</t>
+  </si>
+  <si>
+    <t>Accounting Profit</t>
+  </si>
+  <si>
+    <t>Distributable Profit</t>
+  </si>
+  <si>
+    <t>which means basis only affect the pattern of profit release.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="10">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -517,9 +529,9 @@
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="#,##0.00;[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,6 +705,29 @@
       <i/>
       <sz val="10"/>
       <color rgb="FFC00000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -1227,7 +1262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1411,78 +1446,15 @@
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1516,9 +1488,76 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3432,7 +3471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
@@ -3453,14 +3492,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="M1" s="97" t="s">
+      <c r="M1" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="98" t="s">
+      <c r="N1" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
       <c r="Q1" s="2" t="s">
         <v>72</v>
       </c>
@@ -3470,53 +3509,53 @@
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="N2" s="99" t="s">
+      <c r="N2" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="100" t="s">
+      <c r="O2" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="101"/>
+      <c r="P2" s="116"/>
     </row>
     <row r="3" spans="2:23" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="M3" s="102" t="s">
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="M3" s="83" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="103" t="s">
+      <c r="O3" s="117" t="s">
         <v>92</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="122" t="s">
+      <c r="Q3" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="R3" s="118" t="s">
+      <c r="R3" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="S3" s="122" t="s">
+      <c r="S3" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="T3" s="119" t="s">
+      <c r="T3" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="U3" s="119" t="s">
+      <c r="U3" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="119" t="s">
-        <v>41</v>
+      <c r="V3" s="98" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:23" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3541,34 +3580,34 @@
       <c r="H4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="104">
+      <c r="M4" s="84">
         <v>0</v>
       </c>
-      <c r="N4" s="105">
+      <c r="N4" s="85">
         <f>NPV(Discount_rate,D5:$D$14)*(1+Discount_rate)+NPV(Discount_rate,E5:$E$14)-NPV(Discount_rate,C5:$C$14)*(1+Discount_rate)</f>
         <v>-542.26820031781608</v>
       </c>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107">
+      <c r="O4" s="118"/>
+      <c r="P4" s="86">
         <f>-NPV(Discount_rate,O5:$O$14)</f>
         <v>-542.26820031781756</v>
       </c>
-      <c r="Q4" s="105">
+      <c r="Q4" s="85">
         <f>NPV(Discount_rate,$C5:C$15)*(1+Discount_rate)</f>
         <v>5421.3432037767088</v>
       </c>
-      <c r="R4" s="113">
+      <c r="R4" s="92">
         <f t="shared" ref="R4:R14" si="0">Q4*$R$1</f>
         <v>542.26820031781756</v>
       </c>
-      <c r="S4" s="105">
+      <c r="S4" s="85">
         <f>R4+P4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="123" t="s">
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="102" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3601,48 +3640,48 @@
         <f>F5+G5</f>
         <v>290.63888000000014</v>
       </c>
-      <c r="M5" s="108">
+      <c r="M5" s="87">
         <f>1+M4</f>
         <v>1</v>
       </c>
-      <c r="N5" s="105">
+      <c r="N5" s="85">
         <f>NPV(Discount_rate,D6:$D$14)*(1+Discount_rate)+NPV(Discount_rate,E6:$E$14)-NPV(Discount_rate,C6:$C$14)*(1+Discount_rate)</f>
         <v>-267.89736632735185</v>
       </c>
-      <c r="O5" s="109">
+      <c r="O5" s="88">
         <f t="shared" ref="O5:O14" si="1">F5+(C5-D5)*Investment_rate</f>
         <v>290.63888000000014</v>
       </c>
-      <c r="P5" s="107">
+      <c r="P5" s="86">
         <f>-NPV(Discount_rate,O6:$O$14)</f>
         <v>-267.89736632735207</v>
       </c>
-      <c r="Q5" s="105">
+      <c r="Q5" s="85">
         <f>NPV(Discount_rate,$C6:C$15)*(1+Discount_rate)</f>
         <v>4595.0598998900114</v>
       </c>
-      <c r="R5" s="113">
+      <c r="R5" s="92">
         <f t="shared" si="0"/>
         <v>459.61946488281325</v>
       </c>
-      <c r="S5" s="105">
-        <f t="shared" ref="S5:S14" si="2">R5+P5</f>
+      <c r="S5" s="85">
+        <f>R5+P5</f>
         <v>191.72209855546117</v>
       </c>
-      <c r="T5" s="107">
+      <c r="T5" s="86">
         <f>S5-S4</f>
         <v>191.72209855546117</v>
       </c>
-      <c r="U5" s="120">
-        <f>(C5-D5+S4)*Investment_rate</f>
+      <c r="U5" s="99">
+        <f t="shared" ref="U5:U14" si="2">(C5-D5+S4)*Investment_rate</f>
         <v>20.942880000000002</v>
       </c>
-      <c r="V5" s="115">
+      <c r="V5" s="94">
         <f>F5+U5-T5</f>
         <v>98.916781444538969</v>
       </c>
-      <c r="W5" s="124">
-        <f>V5/C5/(1+Discount_rate)</f>
+      <c r="W5" s="103">
+        <f t="shared" ref="W5:W14" si="3">V5/C5/(1+Discount_rate)</f>
         <v>0.1000246949759708</v>
       </c>
     </row>
@@ -3652,750 +3691,750 @@
         <v>2</v>
       </c>
       <c r="C6" s="21">
-        <f t="shared" ref="C6:C14" si="3">C5*VLOOKUP(B5,Decrement,8)</f>
+        <f t="shared" ref="C6:C14" si="4">C5*VLOOKUP(B5,Decrement,8)</f>
         <v>844.00070610240004</v>
       </c>
       <c r="D6" s="21">
-        <f t="shared" ref="D6:D14" si="4">Renewal_expense*(1+Inflation)^(B6-2)*VLOOKUP(B5,Decrement,7) + Renewal_comm_rate*C6</f>
+        <f t="shared" ref="D6:D14" si="5">Renewal_expense*(1+Inflation)^(B6-2)*VLOOKUP(B5,Decrement,7) + Renewal_comm_rate*C6</f>
         <v>230.33416762048</v>
       </c>
       <c r="E6" s="21">
-        <f t="shared" ref="E6:E14" si="5">Sum_Insured*VLOOKUP(Age+B6-1,IA95_97UltM,2)*Factor*VLOOKUP(B5,Decrement,7)</f>
+        <f t="shared" ref="E6:E14" si="6">Sum_Insured*VLOOKUP(Age+B6-1,IA95_97UltM,2)*Factor*VLOOKUP(B5,Decrement,7)</f>
         <v>409.46499281599995</v>
       </c>
       <c r="F6" s="21">
-        <f t="shared" ref="F6:F14" si="6">C6-D6-E6</f>
+        <f t="shared" ref="F6:F14" si="7">C6-D6-E6</f>
         <v>204.20154566592009</v>
       </c>
       <c r="G6" s="21">
-        <f t="shared" ref="G6:G14" si="7">(H5+C6-D6)*Investment_rate</f>
+        <f t="shared" ref="G6:G14" si="8">(H5+C6-D6)*Investment_rate</f>
         <v>27.129162554457608</v>
       </c>
       <c r="H6" s="21">
         <f>H5+F6+G6</f>
         <v>521.96958822037789</v>
       </c>
-      <c r="M6" s="108">
-        <f t="shared" ref="M6:M14" si="8">1+M5</f>
+      <c r="M6" s="87">
+        <f t="shared" ref="M6:M14" si="9">1+M5</f>
         <v>2</v>
       </c>
-      <c r="N6" s="105">
+      <c r="N6" s="85">
         <f>NPV(Discount_rate,D7:$D$14)*(1+Discount_rate)+NPV(Discount_rate,E7:$E$14)-NPV(Discount_rate,C7:$C$14)*(1+Discount_rate)</f>
         <v>-53.322745496795051</v>
       </c>
-      <c r="O6" s="109">
+      <c r="O6" s="88">
         <f t="shared" si="1"/>
         <v>222.61154182037768</v>
       </c>
-      <c r="P6" s="107">
+      <c r="P6" s="86">
         <f>-NPV(Discount_rate,O7:$O$14)</f>
         <v>-53.322745496794987</v>
       </c>
-      <c r="Q6" s="105">
+      <c r="Q6" s="85">
         <f>NPV(Discount_rate,$C7:C$15)*(1+Discount_rate)</f>
         <v>3863.5909696012395</v>
       </c>
-      <c r="R6" s="113">
+      <c r="R6" s="92">
         <f t="shared" si="0"/>
         <v>386.4545082462792</v>
       </c>
-      <c r="S6" s="105">
+      <c r="S6" s="85">
+        <f t="shared" ref="S5:S14" si="10">R6+P6</f>
+        <v>333.13176274948421</v>
+      </c>
+      <c r="T6" s="86">
+        <f t="shared" ref="T6:T14" si="11">S6-S5</f>
+        <v>141.40966419402304</v>
+      </c>
+      <c r="U6" s="99">
         <f t="shared" si="2"/>
-        <v>333.13176274948421</v>
-      </c>
-      <c r="T6" s="107">
-        <f t="shared" ref="T6:T14" si="9">S6-S5</f>
-        <v>141.40966419402304</v>
-      </c>
-      <c r="U6" s="120">
-        <f>(C6-D6+S5)*Investment_rate</f>
         <v>24.161659111121434</v>
       </c>
-      <c r="V6" s="115">
-        <f t="shared" ref="V6:V14" si="10">F6+U6-T6</f>
+      <c r="V6" s="94">
+        <f t="shared" ref="V6:V14" si="12">F6+U6-T6</f>
         <v>86.95354058301848</v>
       </c>
-      <c r="W6" s="124">
-        <f>V6/C6/(1+Discount_rate)</f>
+      <c r="W6" s="103">
+        <f t="shared" si="3"/>
         <v>0.10002469497597084</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
-        <f t="shared" ref="B7:B14" si="11">1+B6</f>
+        <f t="shared" ref="B7:B14" si="13">1+B6</f>
         <v>3</v>
       </c>
       <c r="C7" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>741.85572320652659</v>
       </c>
       <c r="D7" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>203.5397679768738</v>
       </c>
       <c r="E7" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>394.06159525406042</v>
       </c>
       <c r="F7" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>144.25435997559237</v>
       </c>
       <c r="G7" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.808566303500918</v>
       </c>
       <c r="H7" s="21">
-        <f t="shared" ref="H7:H13" si="12">H6+F7+G7</f>
+        <f t="shared" ref="H7:H13" si="14">H6+F7+G7</f>
         <v>698.03251449947118</v>
       </c>
-      <c r="M7" s="108">
-        <f t="shared" si="8"/>
+      <c r="M7" s="87">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="N7" s="105">
+      <c r="N7" s="85">
         <f>NPV(Discount_rate,D8:$D$14)*(1+Discount_rate)+NPV(Discount_rate,E8:$E$14)-NPV(Discount_rate,C8:$C$14)*(1+Discount_rate)</f>
         <v>105.48141077078344</v>
       </c>
-      <c r="O7" s="109">
+      <c r="O7" s="88">
         <f t="shared" si="1"/>
         <v>160.40383863248195</v>
       </c>
-      <c r="P7" s="107">
+      <c r="P7" s="86">
         <f>-NPV(Discount_rate,O8:$O$14)</f>
         <v>105.48141077078323</v>
       </c>
-      <c r="Q7" s="105">
+      <c r="Q7" s="85">
         <f>NPV(Discount_rate,$C8:C$15)*(1+Discount_rate)</f>
         <v>3215.3873037865546</v>
       </c>
-      <c r="R7" s="113">
+      <c r="R7" s="92">
         <f t="shared" si="0"/>
         <v>321.61813429085925</v>
       </c>
-      <c r="S7" s="105">
+      <c r="S7" s="85">
+        <f t="shared" si="10"/>
+        <v>427.09954506164246</v>
+      </c>
+      <c r="T7" s="86">
+        <f t="shared" si="11"/>
+        <v>93.967782312158249</v>
+      </c>
+      <c r="U7" s="99">
         <f t="shared" si="2"/>
-        <v>427.09954506164246</v>
-      </c>
-      <c r="T7" s="107">
-        <f t="shared" si="9"/>
-        <v>93.967782312158249</v>
-      </c>
-      <c r="U7" s="120">
-        <f>(C7-D7+S6)*Investment_rate</f>
         <v>26.143431539374109</v>
       </c>
-      <c r="V7" s="115">
-        <f t="shared" si="10"/>
+      <c r="V7" s="94">
+        <f t="shared" si="12"/>
         <v>76.430009202808236</v>
       </c>
-      <c r="W7" s="124">
-        <f>V7/C7/(1+Discount_rate)</f>
+      <c r="W7" s="103">
+        <f t="shared" si="3"/>
         <v>0.10002469497597062</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="C8" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>666.81887144349434</v>
       </c>
       <c r="D8" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>183.94399839556758</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>389.62357505291038</v>
       </c>
       <c r="F8" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>93.251297995016387</v>
       </c>
       <c r="G8" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35.427221626421932</v>
       </c>
       <c r="H8" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>826.71103412090952</v>
       </c>
-      <c r="M8" s="108">
-        <f t="shared" si="8"/>
+      <c r="M8" s="87">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="N8" s="105">
+      <c r="N8" s="85">
         <f>NPV(Discount_rate,D9:$D$14)*(1+Discount_rate)+NPV(Discount_rate,E9:$E$14)-NPV(Discount_rate,C9:$C$14)*(1+Discount_rate)</f>
         <v>216.3833972803609</v>
       </c>
-      <c r="O8" s="109">
+      <c r="O8" s="88">
         <f t="shared" si="1"/>
         <v>107.73754418645419</v>
       </c>
-      <c r="P8" s="107">
+      <c r="P8" s="86">
         <f>-NPV(Discount_rate,O9:$O$14)</f>
         <v>216.3833972803609</v>
       </c>
-      <c r="Q8" s="105">
+      <c r="Q8" s="85">
         <f>NPV(Discount_rate,$C9:C$15)*(1+Discount_rate)</f>
         <v>2625.0254853133524</v>
       </c>
-      <c r="R8" s="113">
+      <c r="R8" s="92">
         <f t="shared" si="0"/>
         <v>262.56737347261776</v>
       </c>
-      <c r="S8" s="105">
+      <c r="S8" s="85">
+        <f t="shared" si="10"/>
+        <v>478.95077075297866</v>
+      </c>
+      <c r="T8" s="86">
+        <f t="shared" si="11"/>
+        <v>51.851225691336197</v>
+      </c>
+      <c r="U8" s="99">
         <f t="shared" si="2"/>
-        <v>478.95077075297866</v>
-      </c>
-      <c r="T8" s="107">
-        <f t="shared" si="9"/>
-        <v>51.851225691336197</v>
-      </c>
-      <c r="U8" s="120">
-        <f>(C8-D8+S7)*Investment_rate</f>
         <v>27.299232543287076</v>
       </c>
-      <c r="V8" s="115">
-        <f t="shared" si="10"/>
+      <c r="V8" s="94">
+        <f t="shared" si="12"/>
         <v>68.699304846967266</v>
       </c>
-      <c r="W8" s="124">
-        <f>V8/C8/(1+Discount_rate)</f>
+      <c r="W8" s="103">
+        <f t="shared" si="3"/>
         <v>0.10002469497597075</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="C9" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>599.29529217866536</v>
       </c>
       <c r="D9" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166.2265823802021</v>
       </c>
       <c r="E9" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>388.36971502891879</v>
       </c>
       <c r="F9" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44.69899476954447</v>
       </c>
       <c r="G9" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37.79339231758118</v>
       </c>
       <c r="H9" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>909.20342120803514</v>
       </c>
-      <c r="M9" s="108">
-        <f t="shared" si="8"/>
+      <c r="M9" s="87">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="N9" s="105">
+      <c r="N9" s="85">
         <f>NPV(Discount_rate,D10:$D$14)*(1+Discount_rate)+NPV(Discount_rate,E10:$E$14)-NPV(Discount_rate,C10:$C$14)*(1+Discount_rate)</f>
         <v>280.56595526227011</v>
       </c>
-      <c r="O9" s="109">
+      <c r="O9" s="88">
         <f t="shared" si="1"/>
         <v>57.691056063498365</v>
       </c>
-      <c r="P9" s="107">
+      <c r="P9" s="86">
         <f>-NPV(Discount_rate,O10:$O$14)</f>
         <v>280.56595526227005</v>
       </c>
-      <c r="Q9" s="105">
+      <c r="Q9" s="85">
         <f>NPV(Discount_rate,$C10:C$15)*(1+Discount_rate)</f>
         <v>2086.5020989287273</v>
       </c>
-      <c r="R9" s="113">
+      <c r="R9" s="92">
         <f t="shared" si="0"/>
         <v>208.70173601206878</v>
       </c>
-      <c r="S9" s="105">
+      <c r="S9" s="85">
+        <f t="shared" si="10"/>
+        <v>489.26769127433886</v>
+      </c>
+      <c r="T9" s="86">
+        <f t="shared" si="11"/>
+        <v>10.316920521360203</v>
+      </c>
+      <c r="U9" s="99">
         <f t="shared" si="2"/>
-        <v>489.26769127433886</v>
-      </c>
-      <c r="T9" s="107">
-        <f t="shared" si="9"/>
-        <v>10.316920521360203</v>
-      </c>
-      <c r="U9" s="120">
-        <f>(C9-D9+S8)*Investment_rate</f>
         <v>27.360584416543258</v>
       </c>
-      <c r="V9" s="115">
-        <f t="shared" si="10"/>
+      <c r="V9" s="94">
+        <f t="shared" si="12"/>
         <v>61.742658664727529</v>
       </c>
-      <c r="W9" s="124">
-        <f>V9/C9/(1+Discount_rate)</f>
+      <c r="W9" s="103">
+        <f t="shared" si="3"/>
         <v>0.10002469497597086</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="C10" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>538.52677951651333</v>
       </c>
       <c r="D10" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150.20453242487628</v>
       </c>
       <c r="E10" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>387.12992461598287</v>
       </c>
       <c r="F10" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1923224756541799</v>
       </c>
       <c r="G10" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.925770048990159</v>
       </c>
       <c r="H10" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>949.32151373267948</v>
       </c>
-      <c r="M10" s="108">
-        <f t="shared" si="8"/>
+      <c r="M10" s="87">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="N10" s="105">
+      <c r="N10" s="85">
         <f>NPV(Discount_rate,D11:$D$14)*(1+Discount_rate)+NPV(Discount_rate,E11:$E$14)-NPV(Discount_rate,C11:$C$14)*(1+Discount_rate)</f>
         <v>301.82492380854137</v>
       </c>
-      <c r="O10" s="109">
+      <c r="O10" s="88">
         <f t="shared" si="1"/>
         <v>12.84198988840329</v>
       </c>
-      <c r="P10" s="107">
+      <c r="P10" s="86">
         <f>-NPV(Discount_rate,O11:$O$14)</f>
         <v>301.82492380854143</v>
       </c>
-      <c r="Q10" s="105">
+      <c r="Q10" s="85">
         <f>NPV(Discount_rate,$C11:C$15)*(1+Discount_rate)</f>
         <v>1594.4145789945806</v>
       </c>
-      <c r="R10" s="113">
+      <c r="R10" s="92">
         <f t="shared" si="0"/>
         <v>159.4808319291738</v>
       </c>
-      <c r="S10" s="105">
+      <c r="S10" s="85">
+        <f t="shared" si="10"/>
+        <v>461.30575573771523</v>
+      </c>
+      <c r="T10" s="86">
+        <f t="shared" si="11"/>
+        <v>-27.961935536623628</v>
+      </c>
+      <c r="U10" s="99">
         <f t="shared" si="2"/>
-        <v>461.30575573771523</v>
-      </c>
-      <c r="T10" s="107">
-        <f t="shared" si="9"/>
-        <v>-27.961935536623628</v>
-      </c>
-      <c r="U10" s="120">
-        <f>(C10-D10+S9)*Investment_rate</f>
         <v>26.327698150979277</v>
       </c>
-      <c r="V10" s="115">
-        <f t="shared" si="10"/>
+      <c r="V10" s="94">
+        <f t="shared" si="12"/>
         <v>55.481956163257081</v>
       </c>
-      <c r="W10" s="124">
-        <f>V10/C10/(1+Discount_rate)</f>
+      <c r="W10" s="103">
+        <f t="shared" si="3"/>
         <v>0.10002469497597084</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="C11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>483.83779640261179</v>
       </c>
       <c r="D11" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>135.71448424922414</v>
       </c>
       <c r="E11" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>387.22343327476443</v>
       </c>
       <c r="F11" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-39.100121121376787</v>
       </c>
       <c r="G11" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.923344776582013</v>
       </c>
       <c r="H11" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>949.14473738788467</v>
       </c>
-      <c r="M11" s="108">
-        <f t="shared" si="8"/>
+      <c r="M11" s="87">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="N11" s="105">
+      <c r="N11" s="85">
         <f>NPV(Discount_rate,D12:$D$14)*(1+Discount_rate)+NPV(Discount_rate,E12:$E$14)-NPV(Discount_rate,C12:$C$14)*(1+Discount_rate)</f>
         <v>282.22324976602249</v>
       </c>
-      <c r="O11" s="109">
+      <c r="O11" s="88">
         <f t="shared" si="1"/>
         <v>-28.65642175677516</v>
       </c>
-      <c r="P11" s="107">
+      <c r="P11" s="86">
         <f>-NPV(Discount_rate,O12:$O$14)</f>
         <v>282.22324976602255</v>
       </c>
-      <c r="Q11" s="105">
+      <c r="Q11" s="85">
         <f>NPV(Discount_rate,$C12:C$15)*(1+Discount_rate)</f>
         <v>1143.8940860697278</v>
       </c>
-      <c r="R11" s="113">
+      <c r="R11" s="92">
         <f t="shared" si="0"/>
         <v>114.4176570439414</v>
       </c>
-      <c r="S11" s="105">
+      <c r="S11" s="85">
+        <f t="shared" si="10"/>
+        <v>396.64090680996395</v>
+      </c>
+      <c r="T11" s="86">
+        <f t="shared" si="11"/>
+        <v>-64.664848927751279</v>
+      </c>
+      <c r="U11" s="99">
         <f t="shared" si="2"/>
-        <v>396.64090680996395</v>
-      </c>
-      <c r="T11" s="107">
-        <f t="shared" si="9"/>
-        <v>-64.664848927751279</v>
-      </c>
-      <c r="U11" s="120">
-        <f>(C11-D11+S10)*Investment_rate</f>
         <v>24.282872036733089</v>
       </c>
-      <c r="V11" s="115">
-        <f t="shared" si="10"/>
+      <c r="V11" s="94">
+        <f t="shared" si="12"/>
         <v>49.847599843107581</v>
       </c>
-      <c r="W11" s="124">
-        <f>V11/C11/(1+Discount_rate)</f>
+      <c r="W11" s="103">
+        <f t="shared" si="3"/>
         <v>0.10002469497597072</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="C12" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>434.61750959615011</v>
       </c>
       <c r="D12" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>122.60809699514832</v>
       </c>
       <c r="E12" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>387.84764635876911</v>
       </c>
       <c r="F12" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-75.838233757767284</v>
       </c>
       <c r="G12" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37.834624499666596</v>
       </c>
       <c r="H12" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>911.14112812978397</v>
       </c>
-      <c r="M12" s="108">
-        <f t="shared" si="8"/>
+      <c r="M12" s="87">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="N12" s="105">
+      <c r="N12" s="85">
         <f>NPV(Discount_rate,D13:$D$14)*(1+Discount_rate)+NPV(Discount_rate,E13:$E$14)-NPV(Discount_rate,C13:$C$14)*(1+Discount_rate)</f>
         <v>224.21199587926594</v>
       </c>
-      <c r="O12" s="109">
+      <c r="O12" s="88">
         <f t="shared" si="1"/>
         <v>-66.477951379737235</v>
       </c>
-      <c r="P12" s="107">
+      <c r="P12" s="86">
         <f>-NPV(Discount_rate,O13:$O$14)</f>
         <v>224.21199587926603</v>
       </c>
-      <c r="Q12" s="105">
+      <c r="Q12" s="85">
         <f>NPV(Discount_rate,$C13:C$15)*(1+Discount_rate)</f>
         <v>730.55487376778501</v>
       </c>
-      <c r="R12" s="113">
+      <c r="R12" s="92">
         <f t="shared" si="0"/>
         <v>73.073528411831532</v>
       </c>
-      <c r="S12" s="105">
+      <c r="S12" s="85">
+        <f t="shared" si="10"/>
+        <v>297.28552429109754</v>
+      </c>
+      <c r="T12" s="86">
+        <f t="shared" si="11"/>
+        <v>-99.355382518866406</v>
+      </c>
+      <c r="U12" s="99">
         <f t="shared" si="2"/>
-        <v>297.28552429109754</v>
-      </c>
-      <c r="T12" s="107">
-        <f t="shared" si="9"/>
-        <v>-99.355382518866406</v>
-      </c>
-      <c r="U12" s="120">
-        <f>(C12-D12+S11)*Investment_rate</f>
         <v>21.25950958232897</v>
       </c>
-      <c r="V12" s="115">
-        <f t="shared" si="10"/>
+      <c r="V12" s="94">
+        <f t="shared" si="12"/>
         <v>44.776658343428096</v>
       </c>
-      <c r="W12" s="124">
-        <f>V12/C12/(1+Discount_rate)</f>
+      <c r="W12" s="103">
+        <f t="shared" si="3"/>
         <v>0.10002469497597077</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="C13" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>390.31790300153563</v>
       </c>
       <c r="D13" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110.751870262365</v>
       </c>
       <c r="E13" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>389.7812829624134</v>
       </c>
       <c r="F13" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-110.21525022324278</v>
       </c>
       <c r="G13" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35.721214826068639</v>
       </c>
       <c r="H13" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>836.64709273260985</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
-      <c r="M13" s="108">
-        <f t="shared" si="8"/>
+      <c r="M13" s="87">
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="N13" s="105">
+      <c r="N13" s="85">
         <f>NPV(Discount_rate,D14:$D$14)*(1+Discount_rate)+NPV(Discount_rate,E14:$E$14)-NPV(Discount_rate,C14:$C$14)*(1+Discount_rate)</f>
         <v>129.11008651457632</v>
       </c>
-      <c r="O13" s="109">
+      <c r="O13" s="88">
         <f t="shared" si="1"/>
         <v>-101.82826924106766</v>
       </c>
-      <c r="P13" s="107">
+      <c r="P13" s="86">
         <f>-NPV(Discount_rate,O14:$O$14)</f>
         <v>129.11008651457635</v>
       </c>
-      <c r="Q13" s="105">
+      <c r="Q13" s="85">
         <f>NPV(Discount_rate,$C14:C$15)*(1+Discount_rate)</f>
         <v>350.44407988923683</v>
       </c>
-      <c r="R13" s="113">
+      <c r="R13" s="92">
         <f t="shared" si="0"/>
         <v>35.053062197055652</v>
       </c>
-      <c r="S13" s="105">
+      <c r="S13" s="85">
+        <f t="shared" si="10"/>
+        <v>164.163148711632</v>
+      </c>
+      <c r="T13" s="86">
+        <f t="shared" si="11"/>
+        <v>-133.12237557946554</v>
+      </c>
+      <c r="U13" s="99">
         <f t="shared" si="2"/>
-        <v>164.163148711632</v>
-      </c>
-      <c r="T13" s="107">
-        <f t="shared" si="9"/>
-        <v>-133.12237557946554</v>
-      </c>
-      <c r="U13" s="120">
-        <f>(C13-D13+S12)*Investment_rate</f>
         <v>17.305546710908043</v>
       </c>
-      <c r="V13" s="115">
-        <f t="shared" si="10"/>
+      <c r="V13" s="94">
+        <f t="shared" si="12"/>
         <v>40.212672067130811</v>
       </c>
-      <c r="W13" s="124">
-        <f>V13/C13/(1+Discount_rate)</f>
+      <c r="W13" s="103">
+        <f t="shared" si="3"/>
         <v>0.10002469497597075</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C14" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>350.44407988923683</v>
       </c>
       <c r="D14" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100.02473707138279</v>
       </c>
       <c r="E14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>390.91531221240331</v>
       </c>
       <c r="F14" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-140.49596939454926</v>
       </c>
       <c r="G14" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32.611993066513918</v>
       </c>
       <c r="H14" s="21">
         <f>H13+F14+G14</f>
         <v>728.76311640457459</v>
       </c>
-      <c r="M14" s="108">
-        <f t="shared" si="8"/>
+      <c r="M14" s="87">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="N14" s="110"/>
-      <c r="O14" s="111">
+      <c r="N14" s="89"/>
+      <c r="O14" s="90">
         <f t="shared" si="1"/>
         <v>-132.98338911001363</v>
       </c>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="110">
+      <c r="P14" s="91"/>
+      <c r="Q14" s="89">
         <f>NPV(Discount_rate,$C15:C$15)*(1+Discount_rate)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="116">
+      <c r="R14" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S14" s="110">
+      <c r="S14" s="89">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="91">
+        <f t="shared" si="11"/>
+        <v>-164.163148711632</v>
+      </c>
+      <c r="U14" s="100">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="112">
-        <f t="shared" si="9"/>
-        <v>-164.163148711632</v>
-      </c>
-      <c r="U14" s="121">
-        <f>(C14-D14+S13)*Investment_rate</f>
         <v>12.437474745884581</v>
       </c>
-      <c r="V14" s="117">
-        <f t="shared" si="10"/>
+      <c r="V14" s="96">
+        <f t="shared" si="12"/>
         <v>36.104654062967313</v>
       </c>
-      <c r="W14" s="124">
-        <f>V14/C14/(1+Discount_rate)</f>
+      <c r="W14" s="103">
+        <f t="shared" si="3"/>
         <v>0.10002469497597076</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="M15" s="125" t="s">
+      <c r="M15" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="N15" s="126">
+      <c r="N15" s="105">
         <f>SUM(N4:N14)-SUM('Liability and profit'!B6:B16)</f>
         <v>3.4106051316484809E-12</v>
       </c>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="126">
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="105">
         <f>SUM(V4:V14)-SUM('Liability and profit'!H7:H16)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="127"/>
+      <c r="W15" s="106"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="M16" s="125"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="127"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="106"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M17" s="97" t="s">
+      <c r="M17" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="98" t="s">
+      <c r="N17" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
       <c r="R17" s="45"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N18" s="99" t="s">
+      <c r="N18" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="O18" s="100" t="s">
+      <c r="O18" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="P18" s="101"/>
+      <c r="P18" s="116"/>
     </row>
     <row r="19" spans="2:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="M19" s="102" t="s">
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="M19" s="83" t="s">
         <v>25</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O19" s="103" t="s">
+      <c r="O19" s="117" t="s">
         <v>92</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="119" t="s">
+      <c r="Q19" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="R19" s="119" t="s">
+      <c r="R19" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="S19" s="119" t="s">
-        <v>41</v>
+      <c r="S19" s="98" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:22" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4429,35 +4468,35 @@
       <c r="K20" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="104">
+      <c r="M20" s="84">
         <v>0</v>
       </c>
-      <c r="N20" s="105">
+      <c r="N20" s="85">
         <f>NPV(Discount_rate,D21:D$31)*(1+Discount_rate)+NPV(Discount_rate,E21:E$31)-NPV(Discount_rate,C21:C$31)*(1+Discount_rate)</f>
         <v>302.36619637202784</v>
       </c>
-      <c r="O20" s="106"/>
-      <c r="P20" s="107">
+      <c r="O20" s="118"/>
+      <c r="P20" s="86">
         <f>-NPV(Discount_rate,O21:O$31)</f>
         <v>302.36619637202682</v>
       </c>
-      <c r="Q20" s="107">
+      <c r="Q20" s="86">
         <f>P20</f>
         <v>302.36619637202682</v>
       </c>
-      <c r="R20" s="114"/>
-      <c r="S20" s="115">
+      <c r="R20" s="93"/>
+      <c r="S20" s="94">
         <f>-Q20</f>
         <v>-302.36619637202682</v>
       </c>
-      <c r="T20" s="123" t="s">
+      <c r="T20" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="U20" s="131">
+      <c r="U20" s="110">
         <f>S20</f>
         <v>-302.36619637202682</v>
       </c>
-      <c r="V20" s="132" t="s">
+      <c r="V20" s="111" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4503,36 +4542,36 @@
         <v>494.97606226318794</v>
       </c>
       <c r="L21" s="9"/>
-      <c r="M21" s="108">
+      <c r="M21" s="87">
         <f>1+M20</f>
         <v>1</v>
       </c>
-      <c r="N21" s="105">
+      <c r="N21" s="85">
         <f>NPV(Discount_rate,D22:D$31)*(1+Discount_rate)+NPV(Discount_rate,E22:E$31)-NPV(Discount_rate,C22:C$31)*(1+Discount_rate)</f>
         <v>494.97606226318749</v>
       </c>
-      <c r="O21" s="109">
-        <f t="shared" ref="O21:O30" si="13">F21+(C21-D21)*Investment_rate</f>
+      <c r="O21" s="88">
+        <f t="shared" ref="O21:O30" si="15">F21+(C21-D21)*Investment_rate</f>
         <v>183.53888000000012</v>
       </c>
-      <c r="P21" s="107">
+      <c r="P21" s="86">
         <f>-NPV(Discount_rate,O22:O$31)</f>
         <v>494.97606226318777</v>
       </c>
-      <c r="Q21" s="105">
+      <c r="Q21" s="85">
         <f>P21-P20</f>
         <v>192.60986589116095</v>
       </c>
-      <c r="R21" s="128">
-        <f>(C5-D5+P20)*Investment_rate</f>
+      <c r="R21" s="107">
+        <f t="shared" ref="R21:R30" si="16">(C5-D5+P20)*Investment_rate</f>
         <v>30.013865891160808</v>
       </c>
-      <c r="S21" s="115">
+      <c r="S21" s="94">
         <f>F5+R21-Q21</f>
         <v>107.10000000000002</v>
       </c>
-      <c r="T21" s="124">
-        <f>S21/C21/(1+Discount_rate)</f>
+      <c r="T21" s="103">
+        <f t="shared" ref="T21:T30" si="17">S21/C21/(1+Discount_rate)</f>
         <v>0.10829956934994776</v>
       </c>
     </row>
@@ -4542,23 +4581,23 @@
         <v>2</v>
       </c>
       <c r="C22" s="21">
-        <f t="shared" ref="C22:C30" si="14">C21*VLOOKUP(B21,Decrement,8)</f>
+        <f t="shared" ref="C22:C30" si="18">C21*VLOOKUP(B21,Decrement,8)</f>
         <v>844.00070610240004</v>
       </c>
       <c r="D22" s="21">
-        <f t="shared" ref="D22:D30" si="15">Renewal_expense*(1+Inflation)^(B22-2)*VLOOKUP(B21,Decrement,7) + Renewal_comm_rate*C22</f>
+        <f t="shared" ref="D22:D30" si="19">Renewal_expense*(1+Inflation)^(B22-2)*VLOOKUP(B21,Decrement,7) + Renewal_comm_rate*C22</f>
         <v>230.33416762048</v>
       </c>
       <c r="E22" s="21">
-        <f t="shared" ref="E22:E30" si="16">Sum_Insured*VLOOKUP(Age+B22-1,IA95_97UltM,2)*Factor*VLOOKUP(B21,Decrement,7)*(1+CB1_factor)</f>
+        <f t="shared" ref="E22:E30" si="20">Sum_Insured*VLOOKUP(Age+B22-1,IA95_97UltM,2)*Factor*VLOOKUP(B21,Decrement,7)*(1+CB1_factor)</f>
         <v>511.83124101999994</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" ref="F22:F30" si="17">C22-D22-E22</f>
+        <f t="shared" ref="F22:F30" si="21">C22-D22-E22</f>
         <v>101.83529746192011</v>
       </c>
       <c r="G22" s="21">
-        <f t="shared" ref="G22:G30" si="18">(H21+C22-D22)*Investment_rate</f>
+        <f t="shared" ref="G22:G30" si="22">(H21+C22-D22)*Investment_rate</f>
         <v>23.916162554457603</v>
       </c>
       <c r="H22" s="27">
@@ -4567,574 +4606,575 @@
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10">
-        <f t="shared" ref="J22:J30" si="19">(K21+C22-D22)*Investment_rate</f>
+        <f t="shared" ref="J22:J30" si="23">(K21+C22-D22)*Investment_rate</f>
         <v>33.259278022353236</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" ref="K22:K30" si="20">K21+C22-D22-E22+J22</f>
+        <f t="shared" ref="K22:K30" si="24">K21+C22-D22-E22+J22</f>
         <v>630.07063774746132</v>
       </c>
       <c r="L22" s="9"/>
-      <c r="M22" s="108">
-        <f t="shared" ref="M22:M30" si="21">1+M21</f>
+      <c r="M22" s="87">
+        <f t="shared" ref="M22:M30" si="25">1+M21</f>
         <v>2</v>
       </c>
-      <c r="N22" s="105">
+      <c r="N22" s="85">
         <f>NPV(Discount_rate,D23:D$31)*(1+Discount_rate)+NPV(Discount_rate,E23:E$31)-NPV(Discount_rate,C23:C$31)*(1+Discount_rate)</f>
         <v>630.07063774746166</v>
       </c>
-      <c r="O22" s="109">
-        <f t="shared" si="13"/>
+      <c r="O22" s="88">
+        <f t="shared" si="15"/>
         <v>120.24529361637771</v>
       </c>
-      <c r="P22" s="107">
+      <c r="P22" s="86">
         <f>-NPV(Discount_rate,O23:O$31)</f>
         <v>630.07063774746109</v>
       </c>
-      <c r="Q22" s="105">
-        <f t="shared" ref="Q22:Q30" si="22">P22-P21</f>
+      <c r="Q22" s="85">
+        <f t="shared" ref="Q22:Q30" si="26">P22-P21</f>
         <v>135.09457548427332</v>
       </c>
-      <c r="R22" s="128">
-        <f>(C6-D6+P21)*Investment_rate</f>
+      <c r="R22" s="107">
+        <f t="shared" si="16"/>
         <v>33.259278022353229</v>
       </c>
-      <c r="S22" s="115">
-        <f t="shared" ref="S22:S30" si="23">F6+R22-Q22</f>
+      <c r="S22" s="94">
+        <f t="shared" ref="S22:S30" si="27">F6+R22-Q22</f>
         <v>102.36624820399999</v>
       </c>
-      <c r="T22" s="124">
-        <f>S22/C22/(1+Discount_rate)</f>
+      <c r="T22" s="103">
+        <f t="shared" si="17"/>
         <v>0.11775429365827651</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
-        <f t="shared" ref="B23:B30" si="24">1+B22</f>
+        <f t="shared" ref="B23:B30" si="28">1+B22</f>
         <v>3</v>
       </c>
       <c r="C23" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>741.85572320652659</v>
       </c>
       <c r="D23" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>203.5397679768738</v>
       </c>
       <c r="E23" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>492.57699406757553</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>45.73896116207726</v>
       </c>
       <c r="G23" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>25.42818885738092</v>
       </c>
       <c r="H23" s="27">
-        <f t="shared" ref="H23:H29" si="25">H22+F23+G23</f>
+        <f t="shared" ref="H23:H29" si="29">H22+F23+G23</f>
         <v>380.45749003583603</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>35.051597789313419</v>
       </c>
       <c r="K23" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>710.86119669885204</v>
       </c>
       <c r="L23" s="9"/>
-      <c r="M23" s="108">
-        <f t="shared" si="21"/>
+      <c r="M23" s="87">
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="N23" s="105">
+      <c r="N23" s="85">
         <f>NPV(Discount_rate,D24:D$31)*(1+Discount_rate)+NPV(Discount_rate,E24:E$31)-NPV(Discount_rate,C24:C$31)*(1+Discount_rate)</f>
         <v>710.86119669885193</v>
       </c>
-      <c r="O23" s="109">
-        <f t="shared" si="13"/>
+      <c r="O23" s="88">
+        <f t="shared" si="15"/>
         <v>61.888439818966845</v>
       </c>
-      <c r="P23" s="107">
+      <c r="P23" s="86">
         <f>-NPV(Discount_rate,O24:O$31)</f>
         <v>710.86119669885181</v>
       </c>
-      <c r="Q23" s="105">
-        <f t="shared" si="22"/>
+      <c r="Q23" s="85">
+        <f t="shared" si="26"/>
         <v>80.790558951390722</v>
       </c>
-      <c r="R23" s="128">
-        <f>(C7-D7+P22)*Investment_rate</f>
+      <c r="R23" s="107">
+        <f t="shared" si="16"/>
         <v>35.051597789313412</v>
       </c>
-      <c r="S23" s="115">
-        <f t="shared" si="23"/>
+      <c r="S23" s="94">
+        <f t="shared" si="27"/>
         <v>98.515398813515048</v>
       </c>
-      <c r="T23" s="124">
-        <f>S23/C23/(1+Discount_rate)</f>
+      <c r="T23" s="103">
+        <f t="shared" si="17"/>
         <v>0.12892805874993771</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="C24" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>666.81887144349434</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>183.94399839556758</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>487.02946881613798</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-4.1545957682112089</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>25.899970892512879</v>
       </c>
       <c r="H24" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>402.20286516013772</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>35.812082092403365</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>742.51868302304422</v>
       </c>
       <c r="L24" s="9"/>
-      <c r="M24" s="108">
-        <f t="shared" si="21"/>
+      <c r="M24" s="87">
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="N24" s="105">
+      <c r="N24" s="85">
         <f>NPV(Discount_rate,D25:D$31)*(1+Discount_rate)+NPV(Discount_rate,E25:E$31)-NPV(Discount_rate,C25:C$31)*(1+Discount_rate)</f>
         <v>742.51868302304365</v>
       </c>
-      <c r="O24" s="109">
-        <f t="shared" si="13"/>
+      <c r="O24" s="88">
+        <f t="shared" si="15"/>
         <v>10.331650423226593</v>
       </c>
-      <c r="P24" s="107">
+      <c r="P24" s="86">
         <f>-NPV(Discount_rate,O25:O$31)</f>
         <v>742.5186830230441</v>
       </c>
-      <c r="Q24" s="105">
-        <f t="shared" si="22"/>
+      <c r="Q24" s="85">
+        <f>P24-P23</f>
         <v>31.657486324192291</v>
       </c>
-      <c r="R24" s="128">
-        <f>(C8-D8+P23)*Investment_rate</f>
+      <c r="R24" s="107">
+        <f t="shared" si="16"/>
         <v>35.812082092403358</v>
       </c>
-      <c r="S24" s="115">
-        <f t="shared" si="23"/>
+      <c r="S24" s="94">
+        <f t="shared" si="27"/>
         <v>97.405893763227454</v>
       </c>
-      <c r="T24" s="124">
-        <f>S24/C24/(1+Discount_rate)</f>
+      <c r="T24" s="103">
+        <f t="shared" si="17"/>
         <v>0.14182086462493138</v>
       </c>
+      <c r="V24" s="22"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="C25" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>599.29529217866536</v>
       </c>
       <c r="D25" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>166.2265823802021</v>
       </c>
       <c r="E25" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>485.46214378614849</v>
       </c>
       <c r="F25" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-52.393433987685228</v>
       </c>
       <c r="G25" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>25.058147248758029</v>
       </c>
       <c r="H25" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>374.86757842121051</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>35.267621784645222</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>725.39287082000408</v>
       </c>
       <c r="L25" s="9"/>
-      <c r="M25" s="108">
-        <f t="shared" si="21"/>
+      <c r="M25" s="87">
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="N25" s="105">
+      <c r="N25" s="85">
         <f>NPV(Discount_rate,D26:D$31)*(1+Discount_rate)+NPV(Discount_rate,E26:E$31)-NPV(Discount_rate,C26:C$31)*(1+Discount_rate)</f>
         <v>725.39287082000374</v>
       </c>
-      <c r="O25" s="109">
-        <f t="shared" si="13"/>
+      <c r="O25" s="88">
+        <f t="shared" si="15"/>
         <v>-39.401372693731332</v>
       </c>
-      <c r="P25" s="107">
+      <c r="P25" s="86">
         <f>-NPV(Discount_rate,O26:O$31)</f>
         <v>725.39287082000408</v>
       </c>
-      <c r="Q25" s="105">
-        <f t="shared" si="22"/>
+      <c r="Q25" s="85">
+        <f t="shared" si="26"/>
         <v>-17.125812203040027</v>
       </c>
-      <c r="R25" s="128">
-        <f>(C9-D9+P24)*Investment_rate</f>
+      <c r="R25" s="107">
+        <f t="shared" si="16"/>
         <v>35.267621784645222</v>
       </c>
-      <c r="S25" s="115">
-        <f t="shared" si="23"/>
+      <c r="S25" s="94">
+        <f t="shared" si="27"/>
         <v>97.092428757229726</v>
       </c>
-      <c r="T25" s="124">
-        <f>S25/C25/(1+Discount_rate)</f>
+      <c r="T25" s="103">
+        <f t="shared" si="17"/>
         <v>0.15729223167492415</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="C26" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>538.52677951651333</v>
       </c>
       <c r="D26" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>150.20453242487628</v>
       </c>
       <c r="E26" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>483.91240576997859</v>
       </c>
       <c r="F26" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-95.590158678341538</v>
       </c>
       <c r="G26" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>22.895694765385429</v>
       </c>
       <c r="H26" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>302.1731145082544</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>33.411453537349232</v>
       </c>
       <c r="K26" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>663.21416567901167</v>
       </c>
       <c r="L26" s="9"/>
-      <c r="M26" s="108">
-        <f t="shared" si="21"/>
+      <c r="M26" s="87">
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="N26" s="105">
+      <c r="N26" s="85">
         <f>NPV(Discount_rate,D27:D$31)*(1+Discount_rate)+NPV(Discount_rate,E27:E$31)-NPV(Discount_rate,C27:C$31)*(1+Discount_rate)</f>
         <v>663.21416567901133</v>
       </c>
-      <c r="O26" s="109">
-        <f t="shared" si="13"/>
+      <c r="O26" s="88">
+        <f t="shared" si="15"/>
         <v>-83.940491265592428</v>
       </c>
-      <c r="P26" s="107">
+      <c r="P26" s="86">
         <f>-NPV(Discount_rate,O27:O$31)</f>
         <v>663.21416567901167</v>
       </c>
-      <c r="Q26" s="105">
-        <f t="shared" si="22"/>
+      <c r="Q26" s="85">
+        <f t="shared" si="26"/>
         <v>-62.178705140992406</v>
       </c>
-      <c r="R26" s="128">
-        <f>(C10-D10+P25)*Investment_rate</f>
+      <c r="R26" s="107">
+        <f t="shared" si="16"/>
         <v>33.411453537349232</v>
       </c>
-      <c r="S26" s="115">
-        <f t="shared" si="23"/>
+      <c r="S26" s="94">
+        <f t="shared" si="27"/>
         <v>96.782481153995818</v>
       </c>
-      <c r="T26" s="124">
-        <f>S26/C26/(1+Discount_rate)</f>
+      <c r="T26" s="103">
+        <f t="shared" si="17"/>
         <v>0.17448263950824933</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="C27" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>483.83779640261179</v>
       </c>
       <c r="D27" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>135.71448424922414</v>
       </c>
       <c r="E27" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>484.02929159345553</v>
       </c>
       <c r="F27" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-135.90597944006788</v>
       </c>
       <c r="G27" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>19.50889279984926</v>
       </c>
       <c r="H27" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>185.77602786803578</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>30.340124334971978</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>557.64831057391575</v>
       </c>
       <c r="L27" s="9"/>
-      <c r="M27" s="108">
-        <f t="shared" si="21"/>
+      <c r="M27" s="87">
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
-      <c r="N27" s="105">
+      <c r="N27" s="85">
         <f>NPV(Discount_rate,D28:D$31)*(1+Discount_rate)+NPV(Discount_rate,E28:E$31)-NPV(Discount_rate,C28:C$31)*(1+Discount_rate)</f>
         <v>557.64831057391598</v>
       </c>
-      <c r="O27" s="109">
-        <f t="shared" si="13"/>
+      <c r="O27" s="88">
+        <f t="shared" si="15"/>
         <v>-125.46228007546625</v>
       </c>
-      <c r="P27" s="107">
+      <c r="P27" s="86">
         <f>-NPV(Discount_rate,O28:O$31)</f>
         <v>557.64831057391586</v>
       </c>
-      <c r="Q27" s="105">
-        <f t="shared" si="22"/>
+      <c r="Q27" s="85">
+        <f t="shared" si="26"/>
         <v>-105.56585510509581</v>
       </c>
-      <c r="R27" s="128">
-        <f>(C11-D11+P26)*Investment_rate</f>
+      <c r="R27" s="107">
+        <f t="shared" si="16"/>
         <v>30.340124334971978</v>
       </c>
-      <c r="S27" s="115">
-        <f t="shared" si="23"/>
+      <c r="S27" s="94">
+        <f t="shared" si="27"/>
         <v>96.805858318690994</v>
       </c>
-      <c r="T27" s="124">
-        <f>S27/C27/(1+Discount_rate)</f>
+      <c r="T27" s="103">
+        <f t="shared" si="17"/>
         <v>0.19425160851657269</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="C28" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>434.61750959615011</v>
       </c>
       <c r="D28" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>122.60809699514832</v>
       </c>
       <c r="E28" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>484.80955794846136</v>
       </c>
       <c r="F28" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-172.80014534745953</v>
       </c>
       <c r="G28" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>14.933563214071127</v>
       </c>
       <c r="H28" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>27.909445734647377</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>26.089731695247522</v>
       </c>
       <c r="K28" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>410.93789692170361</v>
       </c>
       <c r="L28" s="9"/>
-      <c r="M28" s="108">
-        <f t="shared" si="21"/>
+      <c r="M28" s="87">
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="N28" s="105">
+      <c r="N28" s="85">
         <f>NPV(Discount_rate,D29:D$31)*(1+Discount_rate)+NPV(Discount_rate,E29:E$31)-NPV(Discount_rate,C29:C$31)*(1+Discount_rate)</f>
         <v>410.93789692170367</v>
       </c>
-      <c r="O28" s="109">
-        <f t="shared" si="13"/>
+      <c r="O28" s="88">
+        <f t="shared" si="15"/>
         <v>-163.43986296942947</v>
       </c>
-      <c r="P28" s="107">
+      <c r="P28" s="86">
         <f>-NPV(Discount_rate,O29:O$31)</f>
         <v>410.93789692170378</v>
       </c>
-      <c r="Q28" s="105">
-        <f t="shared" si="22"/>
+      <c r="Q28" s="85">
+        <f t="shared" si="26"/>
         <v>-146.71041365221208</v>
       </c>
-      <c r="R28" s="128">
-        <f>(C12-D12+P27)*Investment_rate</f>
+      <c r="R28" s="107">
+        <f t="shared" si="16"/>
         <v>26.089731695247529</v>
       </c>
-      <c r="S28" s="115">
-        <f t="shared" si="23"/>
+      <c r="S28" s="94">
+        <f t="shared" si="27"/>
         <v>96.961911589692335</v>
       </c>
-      <c r="T28" s="124">
-        <f>S28/C28/(1+Discount_rate)</f>
+      <c r="T28" s="103">
+        <f t="shared" si="17"/>
         <v>0.21659913869989564</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="C29" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>390.31790300153563</v>
       </c>
       <c r="D29" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>110.751870262365</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>487.22660370301674</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-207.66057096384611</v>
       </c>
       <c r="G29" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9.2242643542145384</v>
       </c>
       <c r="H29" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-170.52686087498421</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>20.715117889826228</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>223.99244384768377</v>
       </c>
       <c r="L29" s="9"/>
-      <c r="M29" s="108">
-        <f t="shared" si="21"/>
+      <c r="M29" s="87">
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
-      <c r="N29" s="105">
+      <c r="N29" s="85">
         <f>NPV(Discount_rate,D30:D$31)*(1+Discount_rate)+NPV(Discount_rate,E30:E$31)-NPV(Discount_rate,C30:C$31)*(1+Discount_rate)</f>
         <v>223.99244384768394</v>
       </c>
-      <c r="O29" s="109">
-        <f t="shared" si="13"/>
+      <c r="O29" s="88">
+        <f t="shared" si="15"/>
         <v>-199.27358998167099</v>
       </c>
-      <c r="P29" s="107">
+      <c r="P29" s="86">
         <f>-NPV(Discount_rate,O30:O$31)</f>
         <v>223.99244384768392</v>
       </c>
-      <c r="Q29" s="105">
-        <f t="shared" si="22"/>
+      <c r="Q29" s="85">
+        <f t="shared" si="26"/>
         <v>-186.94545307401987</v>
       </c>
-      <c r="R29" s="128">
-        <f>(C13-D13+P28)*Investment_rate</f>
+      <c r="R29" s="107">
+        <f t="shared" si="16"/>
         <v>20.715117889826232</v>
       </c>
-      <c r="S29" s="115">
-        <f t="shared" si="23"/>
+      <c r="S29" s="94">
+        <f t="shared" si="27"/>
         <v>97.445320740603321</v>
       </c>
-      <c r="T29" s="124">
-        <f>S29/C29/(1+Discount_rate)</f>
+      <c r="T29" s="103">
+        <f t="shared" si="17"/>
         <v>0.242384750449883</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="C30" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>350.44407988923683</v>
       </c>
       <c r="D30" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>100.02473707138279</v>
       </c>
       <c r="E30" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>488.64414026550412</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-238.22479744765008</v>
       </c>
       <c r="G30" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.396774458286095</v>
       </c>
       <c r="H30" s="27">
@@ -5143,59 +5183,59 @@
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>14.232353599966135</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-1.1013412404281553E-13</v>
       </c>
       <c r="L30" s="9"/>
-      <c r="M30" s="108">
-        <f t="shared" si="21"/>
+      <c r="M30" s="87">
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
-      <c r="N30" s="110"/>
-      <c r="O30" s="111">
-        <f t="shared" si="13"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="90">
+        <f t="shared" si="15"/>
         <v>-230.71221716311445</v>
       </c>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="110">
-        <f t="shared" si="22"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="89">
+        <f t="shared" si="26"/>
         <v>-223.99244384768392</v>
       </c>
-      <c r="R30" s="129">
-        <f>(C14-D14+P29)*Investment_rate</f>
+      <c r="R30" s="108">
+        <f t="shared" si="16"/>
         <v>14.232353599966139</v>
       </c>
-      <c r="S30" s="117">
-        <f t="shared" si="23"/>
+      <c r="S30" s="96">
+        <f t="shared" si="27"/>
         <v>97.728828053100784</v>
       </c>
-      <c r="T30" s="124">
-        <f>S30/C30/(1+Discount_rate)</f>
+      <c r="T30" s="103">
+        <f t="shared" si="17"/>
         <v>0.27074892337486928</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="I31" s="9"/>
-      <c r="M31" s="125" t="s">
+      <c r="M31" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="N31" s="126">
+      <c r="N31" s="105">
         <f>SUM(N20:N30)-SUM('Liability and profit'!B21:B31)</f>
         <v>0</v>
       </c>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="126">
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="105">
         <f>SUM(S20:S30)-SUM('Liability and profit'!E21:E31)</f>
         <v>0</v>
       </c>
-      <c r="T31" s="127"/>
+      <c r="T31" s="106"/>
     </row>
     <row r="32" spans="2:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B32"/>
@@ -5463,7 +5503,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5493,21 +5533,21 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
     </row>
     <row r="5" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="120"/>
       <c r="B5" s="52" t="s">
         <v>70</v>
       </c>
@@ -5553,7 +5593,10 @@
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="56"/>
-      <c r="I6" s="28"/>
+      <c r="I6" s="136">
+        <f>NPV(Investment_rate,'Liability and profit'!H7:H16)</f>
+        <v>542.26820031781767</v>
+      </c>
       <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -5922,21 +5965,21 @@
       <c r="E18"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
     </row>
     <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="52" t="s">
         <v>40</v>
       </c>
@@ -5966,6 +6009,10 @@
       <c r="E21" s="76">
         <f>-C21</f>
         <v>-302.36619637202693</v>
+      </c>
+      <c r="F21" s="136">
+        <f>NPV(Investment_rate,'Liability and profit'!E22:E31)+'Liability and profit'!E21</f>
+        <v>542.26820031781756</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6204,8 +6251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6219,24 +6266,24 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="89" t="s">
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="91"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="127"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="60" t="s">
         <v>60</v>
       </c>
@@ -6674,39 +6721,56 @@
       <c r="A21" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="130"/>
+      <c r="J21" s="109"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
       <c r="D22" s="73" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="75">
         <f>NPV(0.085,'Liability and profit'!H7:H16)</f>
         <v>436.24894192824001</v>
       </c>
+      <c r="E23" s="134">
+        <f>'Liability and profit'!I6</f>
+        <v>542.26820031781767</v>
+      </c>
+      <c r="F23" s="135" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="74">
         <f>NPV(0.085,'Liability and profit'!E22:E31)+'Liability and profit'!E21</f>
         <v>349.76569484487868</v>
       </c>
+      <c r="E24" s="134">
+        <f>'Liability and profit'!F21</f>
+        <v>542.26820031781756</v>
+      </c>
+      <c r="F24" s="135" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="133"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
